--- a/profile.xlsx
+++ b/profile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/bin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae26920bfc737752/Documents/investment and trading/stocks and equity/sandbox/WealthAndFreedom/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="196" documentId="114_{11E5F515-8949-44D0-953D-282568501902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7BA5567D-1FC2-47B9-9C7D-F2F3451D6BA6}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="0" windowWidth="17445" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1012,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
